--- a/liberty-edr-mop.xlsx
+++ b/liberty-edr-mop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hamilton\Dev-Ops-Study\AWS Hamilton multi-account\liberty-edr-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105E7A5F-0FBC-498E-B685-BB7FC425D5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B44908-F2FE-4EAD-8928-AA185C49A532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A4C9217E-AB8D-4740-A2F5-408538DB8C56}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Paso</t>
   </si>
@@ -128,16 +128,43 @@
     <t>Operación en Contingencia mientras el sitio primario se recupera</t>
   </si>
   <si>
-    <t>NO ESPERAR</t>
-  </si>
-  <si>
     <t>Réplica Failback</t>
   </si>
   <si>
-    <t>Instalar agente DRS en VM Contingencia</t>
-  </si>
-  <si>
     <t>Failback (job)</t>
+  </si>
+  <si>
+    <t>Reprotect final</t>
+  </si>
+  <si>
+    <t>09:08 pm</t>
+  </si>
+  <si>
+    <t>NO ESPERAR PARA INICIAR LA RÉPLICA (Sí esperar a que el agente suba - tarda unos 5 minutos)</t>
+  </si>
+  <si>
+    <t>9:33 pm</t>
+  </si>
+  <si>
+    <t>9:42 pm</t>
+  </si>
+  <si>
+    <t>9:40 pm</t>
+  </si>
+  <si>
+    <t>Snapshot disponible: 9:53 pm</t>
+  </si>
+  <si>
+    <t>22:03:12</t>
+  </si>
+  <si>
+    <t>22:14:19</t>
+  </si>
+  <si>
+    <t>22:17 pm</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
   </si>
 </sst>
 </file>
@@ -191,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -199,7 +226,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -267,13 +293,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>464386</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>112719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>179859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -355,13 +381,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12701</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>105300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>7185</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -387,6 +413,50 @@
         <a:xfrm>
           <a:off x="9340851" y="8207900"/>
           <a:ext cx="9582984" cy="5504880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>413225</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>82649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC67CF19-030E-32C0-49C9-F8643096E554}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9328150" y="14363700"/>
+          <a:ext cx="9239725" cy="1924149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -715,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A07A1-5B84-44EA-A3FD-FF73308AAE47}">
-  <dimension ref="F9:K22"/>
+  <dimension ref="F9:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,28 +909,54 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="G21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F22" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
